--- a/BackTest/2020-01-16 BackTest BTT.xlsx
+++ b/BackTest/2020-01-16 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5644854.082499999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4473694.043599999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0.3672</v>
@@ -521,9 +521,11 @@
         <v>-3880226.319399999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3758</v>
+      </c>
       <c r="J4" t="n">
         <v>0.3672</v>
       </c>
@@ -560,9 +562,11 @@
         <v>-3886485.949699998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3767</v>
+      </c>
       <c r="J5" t="n">
         <v>0.3672</v>
       </c>
@@ -599,11 +603,19 @@
         <v>10886309.0792</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3722</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -632,11 +644,19 @@
         <v>5030907.162200001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -665,11 +685,19 @@
         <v>5030907.162200001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -701,8 +729,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -734,8 +768,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -767,8 +807,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -800,8 +846,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -833,8 +885,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -866,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -899,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -932,8 +1002,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -965,8 +1041,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -998,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1031,8 +1119,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1064,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1097,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1130,8 +1236,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1163,8 +1275,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1196,8 +1314,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1229,8 +1353,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1262,8 +1392,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1295,8 +1431,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1328,8 +1470,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1361,8 +1509,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1394,8 +1548,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1427,8 +1587,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1460,8 +1626,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1493,8 +1665,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1526,8 +1704,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1559,8 +1743,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1592,8 +1782,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1625,8 +1821,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1658,8 +1860,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1691,8 +1899,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1721,11 +1935,19 @@
         <v>-28574076.15653821</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.3681</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1976,19 @@
         <v>-28376100.25933821</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.3681</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1787,11 +2017,19 @@
         <v>-25190596.25933821</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1820,11 +2058,19 @@
         <v>-25190596.25933821</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.3701</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1853,11 +2099,19 @@
         <v>-25190596.25933821</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.3701</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1886,11 +2140,19 @@
         <v>-26743199.64353821</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.3701</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1919,11 +2181,19 @@
         <v>-26476101.83793821</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1952,11 +2222,19 @@
         <v>-26608636.46333821</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.3743</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1985,11 +2263,19 @@
         <v>-26520146.73933821</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +2304,19 @@
         <v>-26741841.07103821</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.3752</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2051,11 +2345,19 @@
         <v>-26741841.07103821</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2084,11 +2386,19 @@
         <v>-26800625.17693821</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2117,11 +2427,19 @@
         <v>-29525764.76843821</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.3686</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2150,11 +2468,19 @@
         <v>-29129834.75143821</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.3681</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +2509,19 @@
         <v>-29129834.75143821</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.3695</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2216,11 +2550,19 @@
         <v>-29129834.75143821</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.3695</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2249,15 +2591,19 @@
         <v>-30606181.43333821</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0.3695</v>
       </c>
       <c r="J56" t="n">
-        <v>0.3695</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>0.3672</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2286,17 +2632,17 @@
         <v>-30606181.43333821</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0.3681</v>
       </c>
       <c r="J57" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2327,17 +2673,17 @@
         <v>-30599434.4308382</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0.3681</v>
       </c>
       <c r="J58" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2368,17 +2714,17 @@
         <v>-30701177.15343821</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0.3695</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2409,13 +2755,13 @@
         <v>-30151955.92683821</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0.3653</v>
       </c>
       <c r="J60" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2450,11 +2796,13 @@
         <v>-30044310.72683821</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3699</v>
+      </c>
       <c r="J61" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2489,13 +2837,13 @@
         <v>-30045819.03713821</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0.37</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2530,13 +2878,13 @@
         <v>-29498922.67403821</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0.3699</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2571,13 +2919,13 @@
         <v>-29496575.19153821</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0.37</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2612,13 +2960,13 @@
         <v>-34496575.19153821</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0.373</v>
       </c>
       <c r="J65" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2653,13 +3001,13 @@
         <v>-30343942.07713821</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0.3659</v>
       </c>
       <c r="J66" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2694,11 +3042,13 @@
         <v>-30610324.60253821</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.3723</v>
+      </c>
       <c r="J67" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2733,11 +3083,13 @@
         <v>-30711856.33963821</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.3722</v>
+      </c>
       <c r="J68" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2772,13 +3124,13 @@
         <v>-30111856.33963821</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0.3697</v>
       </c>
       <c r="J69" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2813,13 +3165,13 @@
         <v>-29306498.02163821</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0.3723</v>
       </c>
       <c r="J70" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2854,13 +3206,13 @@
         <v>-30102874.02163821</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0.3733</v>
       </c>
       <c r="J71" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2895,13 +3247,13 @@
         <v>-27906031.91663821</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0.371</v>
       </c>
       <c r="J72" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2936,13 +3288,13 @@
         <v>-27906031.91663821</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0.3733</v>
       </c>
       <c r="J73" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2977,11 +3329,13 @@
         <v>-28807418.87363821</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.3733</v>
+      </c>
       <c r="J74" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3016,13 +3370,13 @@
         <v>-28807418.87363821</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0.37</v>
       </c>
       <c r="J75" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3057,13 +3411,13 @@
         <v>-28807418.87363821</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0.37</v>
       </c>
       <c r="J76" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3098,11 +3452,13 @@
         <v>-28807418.87363821</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.37</v>
+      </c>
       <c r="J77" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3137,11 +3493,13 @@
         <v>-28807418.87363821</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.37</v>
+      </c>
       <c r="J78" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3176,13 +3534,13 @@
         <v>-23675018.17283821</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0.37</v>
       </c>
       <c r="J79" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3217,11 +3575,13 @@
         <v>-24850030.63243821</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.3752</v>
+      </c>
       <c r="J80" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3260,7 +3620,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3295,11 +3655,13 @@
         <v>-25395286.90283821</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.3716</v>
+      </c>
       <c r="J82" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3338,7 +3700,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3377,7 +3739,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3412,11 +3774,13 @@
         <v>-22051601.52663821</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.374</v>
+      </c>
       <c r="J85" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3451,11 +3815,13 @@
         <v>-50379702.06413821</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.3733</v>
+      </c>
       <c r="J86" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3490,13 +3856,11 @@
         <v>-50379702.06413821</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3535,7 +3899,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3574,7 +3938,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3613,7 +3977,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3648,11 +4012,13 @@
         <v>-40766951.10303821</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.3718</v>
+      </c>
       <c r="J91" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3687,11 +4053,13 @@
         <v>-41898997.70483822</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.3749</v>
+      </c>
       <c r="J92" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3726,11 +4094,13 @@
         <v>-41898997.70483822</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.3748</v>
+      </c>
       <c r="J93" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3765,11 +4135,13 @@
         <v>-37534948.87943821</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.3748</v>
+      </c>
       <c r="J94" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3804,11 +4176,13 @@
         <v>-37647182.54953822</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.3749</v>
+      </c>
       <c r="J95" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3843,11 +4217,13 @@
         <v>-37397057.51203822</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.3748</v>
+      </c>
       <c r="J96" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3882,13 +4258,13 @@
         <v>-35013865.80333821</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0.3749</v>
       </c>
       <c r="J97" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3923,11 +4299,13 @@
         <v>-35013865.80333821</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.3751</v>
+      </c>
       <c r="J98" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3962,11 +4340,13 @@
         <v>-35013865.80333821</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.3751</v>
+      </c>
       <c r="J99" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4001,11 +4381,13 @@
         <v>-33793359.88053822</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.3751</v>
+      </c>
       <c r="J100" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4040,11 +4422,13 @@
         <v>-37291824.46623822</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.3752</v>
+      </c>
       <c r="J101" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4083,7 +4467,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4118,11 +4502,13 @@
         <v>-32437970.38820443</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.3752</v>
+      </c>
       <c r="J103" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4161,7 +4547,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4200,7 +4586,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4239,7 +4625,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4278,7 +4664,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4317,7 +4703,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4356,7 +4742,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4395,7 +4781,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4434,7 +4820,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4473,7 +4859,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4512,7 +4898,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4551,7 +4937,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4590,7 +4976,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4629,7 +5015,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4668,7 +5054,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4707,7 +5093,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4746,7 +5132,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4785,7 +5171,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4824,7 +5210,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4863,7 +5249,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4902,7 +5288,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4941,7 +5327,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4980,7 +5366,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5019,7 +5405,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5058,7 +5444,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5097,7 +5483,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5136,7 +5522,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5175,7 +5561,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5214,7 +5600,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5253,7 +5639,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5292,7 +5678,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5331,7 +5717,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5370,7 +5756,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5409,7 +5795,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5448,7 +5834,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5487,7 +5873,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5526,7 +5912,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5565,7 +5951,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5604,7 +5990,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5639,11 +6025,13 @@
         <v>-40109994.35208426</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.3732</v>
+      </c>
       <c r="J142" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5682,7 +6070,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5717,11 +6105,13 @@
         <v>-39470258.28038426</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.3733</v>
+      </c>
       <c r="J144" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5760,7 +6150,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5795,11 +6185,13 @@
         <v>-42680255.28038426</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.3732</v>
+      </c>
       <c r="J146" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5834,11 +6226,13 @@
         <v>-42680255.28038426</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.3732</v>
+      </c>
       <c r="J147" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5873,11 +6267,13 @@
         <v>-41680255.28038426</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.3732</v>
+      </c>
       <c r="J148" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5916,7 +6312,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5955,7 +6351,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5994,7 +6390,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6033,7 +6429,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6072,7 +6468,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6111,7 +6507,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6150,7 +6546,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6189,7 +6585,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6228,7 +6624,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6267,7 +6663,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6306,7 +6702,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6345,7 +6741,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6384,7 +6780,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6423,7 +6819,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6462,7 +6858,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6501,7 +6897,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6540,7 +6936,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6579,7 +6975,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6618,7 +7014,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6657,7 +7053,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6696,7 +7092,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6735,7 +7131,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6774,7 +7170,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6813,7 +7209,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6852,7 +7248,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6891,7 +7287,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6930,7 +7326,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6969,7 +7365,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7008,7 +7404,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7047,7 +7443,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7086,7 +7482,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7125,7 +7521,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7164,7 +7560,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7203,7 +7599,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7242,7 +7638,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7281,7 +7677,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7320,7 +7716,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7359,7 +7755,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7398,7 +7794,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7437,7 +7833,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7476,7 +7872,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7515,7 +7911,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7554,7 +7950,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7593,7 +7989,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7632,7 +8028,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7671,7 +8067,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7710,7 +8106,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7749,7 +8145,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7788,7 +8184,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7827,7 +8223,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7866,7 +8262,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7905,7 +8301,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7944,7 +8340,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7983,7 +8379,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8022,7 +8418,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8061,7 +8457,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8100,7 +8496,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8139,7 +8535,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8178,7 +8574,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8217,7 +8613,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8256,7 +8652,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8295,7 +8691,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8334,7 +8730,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8373,7 +8769,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8412,7 +8808,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8451,7 +8847,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8490,7 +8886,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8529,7 +8925,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8568,7 +8964,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8607,7 +9003,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8646,7 +9042,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8685,7 +9081,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8724,7 +9120,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8763,7 +9159,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8802,7 +9198,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8841,7 +9237,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8880,7 +9276,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8919,7 +9315,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8958,7 +9354,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8997,7 +9393,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9036,7 +9432,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9075,7 +9471,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9114,7 +9510,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9153,7 +9549,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9192,7 +9588,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9231,7 +9627,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9270,7 +9666,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9309,7 +9705,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9348,7 +9744,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9387,7 +9783,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9426,7 +9822,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9465,7 +9861,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9504,7 +9900,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9543,7 +9939,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9582,7 +9978,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9621,7 +10017,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9660,7 +10056,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9699,7 +10095,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9738,7 +10134,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9777,7 +10173,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9816,7 +10212,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9855,7 +10251,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9894,7 +10290,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9933,7 +10329,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9972,7 +10368,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10011,7 +10407,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10050,7 +10446,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10089,7 +10485,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10128,7 +10524,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10167,7 +10563,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10206,7 +10602,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10245,7 +10641,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10284,7 +10680,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10323,7 +10719,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10362,7 +10758,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10401,7 +10797,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10440,7 +10836,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10479,7 +10875,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10518,7 +10914,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10557,7 +10953,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10596,7 +10992,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10635,7 +11031,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10674,7 +11070,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10713,7 +11109,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10752,7 +11148,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10791,7 +11187,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10830,7 +11226,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10869,7 +11265,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10908,7 +11304,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10947,7 +11343,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10986,7 +11382,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11025,7 +11421,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11064,7 +11460,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11103,7 +11499,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11142,7 +11538,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11181,7 +11577,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11220,7 +11616,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11259,7 +11655,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11298,7 +11694,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11337,7 +11733,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11376,7 +11772,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11415,7 +11811,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11454,7 +11850,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11493,7 +11889,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11532,7 +11928,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11571,7 +11967,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11610,7 +12006,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11649,7 +12045,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11688,7 +12084,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11727,7 +12123,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11766,7 +12162,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11805,7 +12201,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11844,7 +12240,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11883,7 +12279,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11922,7 +12318,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11961,7 +12357,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12000,7 +12396,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12039,7 +12435,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12078,7 +12474,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12117,7 +12513,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12156,7 +12552,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12195,7 +12591,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12234,7 +12630,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12273,7 +12669,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12312,7 +12708,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12351,7 +12747,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12390,7 +12786,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12429,7 +12825,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12468,7 +12864,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12507,7 +12903,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12546,7 +12942,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12581,23 +12977,21 @@
         <v>116024395.9704132</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>0.3695</v>
+        <v>0.3672</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L320" t="n">
-        <v>1.147909336941813</v>
-      </c>
-      <c r="M320" t="n">
-        <v>1.047385620915033</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12625,8 +13019,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12658,8 +13058,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12691,8 +13097,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12724,8 +13136,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12757,8 +13175,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12790,8 +13214,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12823,8 +13253,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12856,8 +13292,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12889,8 +13331,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12922,8 +13370,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12955,8 +13409,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12988,8 +13448,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13021,8 +13487,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13051,15 +13523,23 @@
         <v>92748258.26031326</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>0.3672</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+        <v>1.111557734204793</v>
+      </c>
+      <c r="M334" t="n">
+        <v>1.026688453159041</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -13117,7 +13597,7 @@
         <v>93247489.79397988</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13150,7 +13630,7 @@
         <v>93935276.51357989</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13183,7 +13663,7 @@
         <v>88786140.85687989</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13216,7 +13696,7 @@
         <v>88909922.03617989</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13249,7 +13729,7 @@
         <v>49104830.02147988</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13579,7 +14059,7 @@
         <v>67061877.52579927</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13942,7 +14422,7 @@
         <v>98060267.54375462</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13975,7 +14455,7 @@
         <v>96219768.34165463</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14173,7 +14653,7 @@
         <v>101452232.2803546</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14239,7 +14719,7 @@
         <v>98525763.58785462</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -16978,7 +17458,7 @@
         <v>166786473.2714168</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17011,7 +17491,7 @@
         <v>166740765.0586168</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -18958,7 +19438,7 @@
         <v>130171867.0455167</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18991,7 +19471,7 @@
         <v>122291517.9694167</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19288,7 +19768,7 @@
         <v>110692093.5281167</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19354,7 +19834,7 @@
         <v>110710424.3768167</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19387,7 +19867,7 @@
         <v>110711681.4884167</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19420,7 +19900,7 @@
         <v>110711681.4884167</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19453,7 +19933,7 @@
         <v>110777989.7528167</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19486,7 +19966,7 @@
         <v>110559571.9124167</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19519,7 +19999,7 @@
         <v>105408641.0453167</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19552,7 +20032,7 @@
         <v>104672988.2807167</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19585,7 +20065,7 @@
         <v>104674216.7780167</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19618,7 +20098,7 @@
         <v>104675526.1862167</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19651,7 +20131,7 @@
         <v>105904106.3377167</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19717,7 +20197,7 @@
         <v>111116345.8902167</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19750,7 +20230,7 @@
         <v>111117629.1048167</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19783,7 +20263,7 @@
         <v>111117629.1048167</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19948,7 +20428,7 @@
         <v>116149802.0233167</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19981,7 +20461,7 @@
         <v>116151167.4273167</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20014,7 +20494,7 @@
         <v>116119641.1366167</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20047,7 +20527,7 @@
         <v>116118194.1366167</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20080,7 +20560,7 @@
         <v>115759926.3009167</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20113,7 +20593,7 @@
         <v>114943059.6212167</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -21268,7 +21748,7 @@
         <v>111310773.3891843</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21301,7 +21781,7 @@
         <v>110240592.7599916</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21334,7 +21814,7 @@
         <v>111105483.8798916</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21895,7 +22375,7 @@
         <v>119372081.7886917</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21928,7 +22408,7 @@
         <v>121831502.9945917</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21961,7 +22441,7 @@
         <v>113178555.1989917</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21994,7 +22474,7 @@
         <v>112872714.4121917</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22027,7 +22507,7 @@
         <v>115582569.9350917</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22060,7 +22540,7 @@
         <v>115580110.8982917</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22093,7 +22573,7 @@
         <v>115580110.8982917</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22126,7 +22606,7 @@
         <v>118736436.5456917</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22159,7 +22639,7 @@
         <v>116665171.2078596</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22192,7 +22672,7 @@
         <v>116459001.8956596</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22225,7 +22705,7 @@
         <v>122814667.8932596</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22258,7 +22738,7 @@
         <v>121940574.8993596</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22291,7 +22771,7 @@
         <v>121940574.8993596</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22324,7 +22804,7 @@
         <v>122060767.2070519</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22357,7 +22837,7 @@
         <v>118128127.2070519</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22390,7 +22870,7 @@
         <v>117684108.3448519</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22423,7 +22903,7 @@
         <v>118604810.4241519</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22456,7 +22936,7 @@
         <v>118580918.7588519</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22489,7 +22969,7 @@
         <v>117629821.7526519</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22522,7 +23002,7 @@
         <v>118538553.6355519</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22555,7 +23035,7 @@
         <v>118920085.3385519</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22588,7 +23068,7 @@
         <v>119009818.1417519</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22621,7 +23101,7 @@
         <v>119063445.9268519</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22654,7 +23134,7 @@
         <v>118615172.4249519</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22687,7 +23167,7 @@
         <v>125310408.4258519</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22720,7 +23200,7 @@
         <v>125310408.4258519</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22753,7 +23233,7 @@
         <v>125301356.6630519</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22786,7 +23266,7 @@
         <v>135377386.8391519</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22819,7 +23299,7 @@
         <v>139990192.7842519</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22852,7 +23332,7 @@
         <v>137254593.8135519</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22885,7 +23365,7 @@
         <v>134322015.2544519</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22918,7 +23398,7 @@
         <v>131941064.7498519</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22984,7 +23464,7 @@
         <v>132170685.3674519</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23017,7 +23497,7 @@
         <v>125889078.1391519</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23050,7 +23530,7 @@
         <v>125889078.1391519</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23083,7 +23563,7 @@
         <v>125889078.1391519</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23116,7 +23596,7 @@
         <v>125889078.1391519</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23149,7 +23629,7 @@
         <v>128845187.5825519</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23182,7 +23662,7 @@
         <v>128461669.4130519</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23215,7 +23695,7 @@
         <v>113405674.4315519</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23248,7 +23728,7 @@
         <v>139533604.7299519</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23281,7 +23761,7 @@
         <v>133680403.6187519</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23314,7 +23794,7 @@
         <v>133682541.0732519</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23347,7 +23827,7 @@
         <v>133682541.0732519</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23380,7 +23860,7 @@
         <v>133669052.6159519</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23413,7 +23893,7 @@
         <v>135677075.0624451</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23446,7 +23926,7 @@
         <v>133846032.3759451</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23479,7 +23959,7 @@
         <v>133926974.2395451</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23512,7 +23992,7 @@
         <v>134528727.2814451</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23545,7 +24025,7 @@
         <v>132134983.1509001</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23578,7 +24058,7 @@
         <v>132140885.2489001</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23611,7 +24091,7 @@
         <v>131732961.2566001</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23644,7 +24124,7 @@
         <v>131728551.2566001</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23677,7 +24157,7 @@
         <v>131707156.1052001</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23710,7 +24190,7 @@
         <v>129622097.4116001</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23743,7 +24223,7 @@
         <v>130242585.9707001</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23776,7 +24256,7 @@
         <v>127505106.3588001</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23809,7 +24289,7 @@
         <v>113914999.3063001</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23842,7 +24322,7 @@
         <v>113930655.2521001</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23875,7 +24355,7 @@
         <v>113934117.9400001</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23908,7 +24388,7 @@
         <v>114027158.7359001</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23941,7 +24421,7 @@
         <v>113036056.9195001</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23974,7 +24454,7 @@
         <v>116009362.3687001</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24007,7 +24487,7 @@
         <v>116021462.3827001</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24040,7 +24520,7 @@
         <v>113594198.1174001</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24073,7 +24553,7 @@
         <v>113605181.7456001</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24106,7 +24586,7 @@
         <v>113585200.4863001</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24139,7 +24619,7 @@
         <v>113585200.4863001</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24172,7 +24652,7 @@
         <v>115213656.9444001</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24205,7 +24685,7 @@
         <v>115621282.8720001</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24238,7 +24718,7 @@
         <v>116864281.6546001</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24271,7 +24751,7 @@
         <v>116894281.6546001</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24304,7 +24784,7 @@
         <v>119126333.9851001</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24370,7 +24850,7 @@
         <v>111115085.2206001</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24502,7 +24982,7 @@
         <v>111750445.7514001</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24535,7 +25015,7 @@
         <v>111750445.7514001</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24568,7 +25048,7 @@
         <v>112219781.3973001</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24601,7 +25081,7 @@
         <v>112219781.3973001</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24634,7 +25114,7 @@
         <v>110500187.6025001</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24667,7 +25147,7 @@
         <v>109525306.2223001</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24700,7 +25180,7 @@
         <v>133336521.4487093</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24733,7 +25213,7 @@
         <v>114707383.8824186</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24766,7 +25246,7 @@
         <v>105010640.5905186</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24799,7 +25279,7 @@
         <v>101395022.1660186</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24832,7 +25312,7 @@
         <v>105057688.0912186</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24865,7 +25345,7 @@
         <v>102827880.3903186</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24898,7 +25378,7 @@
         <v>102936838.4532232</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24931,7 +25411,7 @@
         <v>87356824.14212321</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24964,7 +25444,7 @@
         <v>80406262.41512321</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24997,7 +25477,7 @@
         <v>80406262.41512321</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25030,7 +25510,7 @@
         <v>60701500.49902321</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25063,7 +25543,7 @@
         <v>62629499.82382321</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25096,7 +25576,7 @@
         <v>57305534.64902321</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25129,7 +25609,7 @@
         <v>60789140.05642321</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25162,7 +25642,7 @@
         <v>60789140.05642321</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25195,7 +25675,7 @@
         <v>59872109.39282321</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25228,7 +25708,7 @@
         <v>58331368.74692321</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25261,7 +25741,7 @@
         <v>60507400.47322321</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25294,7 +25774,7 @@
         <v>60262821.11232321</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25327,7 +25807,7 @@
         <v>60259437.43102321</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25360,7 +25840,7 @@
         <v>60633921.31242321</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25393,7 +25873,7 @@
         <v>60300404.72392321</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25426,7 +25906,7 @@
         <v>60506601.06782321</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25525,7 +26005,7 @@
         <v>65083523.51622321</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25558,7 +26038,7 @@
         <v>24483583.65662321</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25591,7 +26071,7 @@
         <v>24487554.21092321</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25624,7 +26104,7 @@
         <v>29819590.76492321</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25657,7 +26137,7 @@
         <v>27512978.70082321</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25954,7 +26434,7 @@
         <v>32440907.7952232</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26185,7 +26665,7 @@
         <v>33195136.87590952</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26218,7 +26698,7 @@
         <v>33195136.87590952</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27747,6 +28227,6 @@
       <c r="M779" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>